--- a/codebooks/flanker_clean_codebook.xlsx
+++ b/codebooks/flanker_clean_codebook.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">incorrect = 0, correct = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_sessions</t>
   </si>
   <si>
     <t xml:space="preserve">valid_trials</t>
@@ -468,9 +471,20 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
         <v>5</v>
       </c>
     </row>
